--- a/data/evaluation/evaluation_South_Spring_Melons.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Melons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1701.270811940585</v>
+        <v>1693.579534884307</v>
       </c>
       <c r="C4" t="n">
-        <v>5184199.523756022</v>
+        <v>5060764.497747359</v>
       </c>
       <c r="D4" t="n">
-        <v>2276.883730838275</v>
+        <v>2249.614299773932</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.093025243984787</v>
+        <v>-1.043190621639682</v>
       </c>
     </row>
     <row r="5">
